--- a/1-SystemDocs/190504_Sensor_Datasheets/11_TGS2611/TGS2611_calculations_scaling.xlsx
+++ b/1-SystemDocs/190504_Sensor_Datasheets/11_TGS2611/TGS2611_calculations_scaling.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\2-Electrical\3 - Development sources\1-Sensor_Datasheets\TGS2611\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\1-SystemDocs\190504_Sensor_Datasheets\11_TGS2611\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,15 +125,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,16 +147,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -384,11 +480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382769704"/>
-        <c:axId val="382767744"/>
+        <c:axId val="347730504"/>
+        <c:axId val="347730896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382769704"/>
+        <c:axId val="347730504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,12 +541,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382767744"/>
+        <c:crossAx val="347730896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382767744"/>
+        <c:axId val="347730896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382769704"/>
+        <c:crossAx val="347730504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -721,11 +817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444339072"/>
-        <c:axId val="387148576"/>
+        <c:axId val="347731288"/>
+        <c:axId val="347732072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444339072"/>
+        <c:axId val="347731288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,12 +878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387148576"/>
+        <c:crossAx val="347732072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387148576"/>
+        <c:axId val="347732072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444339072"/>
+        <c:crossAx val="347731288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1098,11 +1194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441714320"/>
-        <c:axId val="441713928"/>
+        <c:axId val="347732856"/>
+        <c:axId val="347734032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441714320"/>
+        <c:axId val="347732856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,12 +1255,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441713928"/>
+        <c:crossAx val="347734032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441713928"/>
+        <c:axId val="347734032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441714320"/>
+        <c:crossAx val="347732856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,11 +1545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382768528"/>
-        <c:axId val="387148184"/>
+        <c:axId val="384866040"/>
+        <c:axId val="384862512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382768528"/>
+        <c:axId val="384866040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,12 +1606,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387148184"/>
+        <c:crossAx val="384862512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387148184"/>
+        <c:axId val="384862512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382768528"/>
+        <c:crossAx val="384866040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4236,7 +4332,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4368,7 @@
       <c r="C2">
         <v>6800</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2">
@@ -4459,183 +4555,202 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6">
         <v>680</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <f>$D$33*($D$31/($D$31+(C23)))</f>
         <v>4.4117647058823533</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f>1000*($D$33-D23)/C23</f>
         <v>0.86505190311418634</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <f>334172749453*C23^-2.08</f>
         <v>428896.49137488561</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f>C23*2</f>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:C29" si="1">C23*2</f>
         <v>1360</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <f>$D$33*($D$31/($D$31+(C24)))</f>
         <v>3.9473684210526319</v>
       </c>
-      <c r="E24">
-        <f t="shared" ref="E24:E30" si="1">1000*($D$33-D24)/C24</f>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:E30" si="2">1000*($D$33-D24)/C24</f>
         <v>0.77399380804953533</v>
       </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F30" si="2">334172749453*C24^-2.08</f>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F30" si="3">334172749453*C24^-2.08</f>
         <v>101440.20132974724</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f>C24*2</f>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6">
+        <f t="shared" si="1"/>
         <v>2720</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:D30" si="3">$D$33*($D$31/($D$31+(C25)))</f>
+      <c r="D25" s="7">
+        <f t="shared" ref="D25:D30" si="4">$D$33*($D$31/($D$31+(C25)))</f>
         <v>3.2608695652173916</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
+      <c r="E25" s="6">
+        <f t="shared" si="2"/>
         <v>0.63938618925831192</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
         <v>23992.069538347823</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <f>C25*2</f>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6">
+        <f t="shared" si="1"/>
         <v>5440</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4193548387096775</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.47438330170777987</v>
+      </c>
+      <c r="F26" s="8">
         <f t="shared" si="3"/>
-        <v>2.4193548387096775</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.47438330170777987</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
         <v>5674.4702118815358</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <f>C26*2</f>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6">
+        <f t="shared" si="1"/>
         <v>10880</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5957446808510638</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.31289111389236546</v>
+      </c>
+      <c r="F27" s="8">
         <f t="shared" si="3"/>
-        <v>1.5957446808510638</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.31289111389236546</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
         <v>1342.0939837667863</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <f>C27*2</f>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6">
+        <f t="shared" si="1"/>
         <v>21760</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.949367088607595</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18615040953090098</v>
+      </c>
+      <c r="F28" s="8">
         <f t="shared" si="3"/>
-        <v>0.949367088607595</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.18615040953090098</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
         <v>317.42456899174692</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <f>C28*2</f>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6">
+        <f t="shared" si="1"/>
         <v>43520</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
+        <f t="shared" si="4"/>
+        <v>0.52447552447552448</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10283833813245578</v>
+      </c>
+      <c r="F29" s="8">
         <f t="shared" si="3"/>
-        <v>0.52447552447552448</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.10283833813245578</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
         <v>75.075485188304754</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6">
         <v>45000</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.50898203592814373</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9800399201596807E-2</v>
+      </c>
+      <c r="F30" s="8">
         <f t="shared" si="3"/>
-        <v>0.50898203592814373</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>9.9800399201596807E-2</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
         <v>70.030786404387939</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="14">
         <v>5100</v>
       </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <v>5</v>
       </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23:E30">
